--- a/result.xlsx
+++ b/result.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Tab" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
   <si>
     <t>Weeks</t>
   </si>
@@ -22,7 +22,10 @@
     <t>Date Range</t>
   </si>
   <si>
-    <t>Total Working Hours</t>
+    <t>Total Hours</t>
+  </si>
+  <si>
+    <t>FEO limit hours</t>
   </si>
   <si>
     <t>Date</t>
@@ -43,7 +46,7 @@
     <t>Office End</t>
   </si>
   <si>
-    <t>Working Hours</t>
+    <t>Hours</t>
   </si>
   <si>
     <t>2022-04-01</t>
@@ -452,33 +455,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
@@ -489,25 +501,28 @@
       <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -521,209 +536,212 @@
       <c r="K2">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G11">
         <v>7</v>

--- a/result.xlsx
+++ b/result.xlsx
@@ -103,7 +103,7 @@
     <t>18:00:00</t>
   </si>
   <si>
-    <t>15:30.0:00</t>
+    <t>15:30:00</t>
   </si>
 </sst>
 </file>

--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
   <si>
     <t>Weeks</t>
   </si>
@@ -61,12 +61,33 @@
     <t>2022-06-13</t>
   </si>
   <si>
+    <t>2022-06-15</t>
+  </si>
+  <si>
+    <t>2022-06-20</t>
+  </si>
+  <si>
+    <t>2022-06-22</t>
+  </si>
+  <si>
+    <t>2022-06-27</t>
+  </si>
+  <si>
+    <t>2022-06-29</t>
+  </si>
+  <si>
+    <t>2022-07-15</t>
+  </si>
+  <si>
     <t>Wednesday</t>
   </si>
   <si>
     <t>Monday</t>
   </si>
   <si>
+    <t>Friday</t>
+  </si>
+  <si>
     <t>09:00:00</t>
   </si>
   <si>
@@ -76,10 +97,16 @@
     <t>13:00:00</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>14:00:00</t>
   </si>
   <si>
     <t>18:00:00</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
   </si>
 </sst>
 </file>
@@ -437,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,19 +519,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -516,7 +543,7 @@
         <v>44</v>
       </c>
       <c r="K2">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="L2">
         <v>120</v>
@@ -527,19 +554,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -550,19 +577,19 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -573,22 +600,160 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G5">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
   <si>
     <t>Weeks</t>
   </si>
@@ -49,31 +49,31 @@
     <t>Hours</t>
   </si>
   <si>
-    <t>2022-08-02</t>
-  </si>
-  <si>
-    <t>2022-08-05</t>
-  </si>
-  <si>
-    <t>2022-08-09</t>
-  </si>
-  <si>
-    <t>2022-08-12</t>
-  </si>
-  <si>
-    <t>2022-08-16</t>
-  </si>
-  <si>
-    <t>2022-08-19</t>
-  </si>
-  <si>
-    <t>2022-08-23</t>
-  </si>
-  <si>
-    <t>2022-08-26</t>
-  </si>
-  <si>
-    <t>2022-09-01</t>
+    <t>2022-12-20</t>
+  </si>
+  <si>
+    <t>2022-12-23</t>
+  </si>
+  <si>
+    <t>2022-12-27</t>
+  </si>
+  <si>
+    <t>2022-12-30</t>
+  </si>
+  <si>
+    <t>2023-01-03</t>
+  </si>
+  <si>
+    <t>2023-01-06</t>
+  </si>
+  <si>
+    <t>2023-01-10</t>
+  </si>
+  <si>
+    <t>2023-01-13</t>
+  </si>
+  <si>
+    <t>2023-01-30</t>
   </si>
   <si>
     <t>Tuesday</t>
@@ -82,7 +82,7 @@
     <t>Friday</t>
   </si>
   <si>
-    <t>Thursday</t>
+    <t>Monday</t>
   </si>
   <si>
     <t>09:00:00</t>
@@ -94,13 +94,16 @@
     <t>13:00:00</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>14:00:00</t>
   </si>
   <si>
     <t>18:00:00</t>
   </si>
   <si>
-    <t>16:00:00</t>
+    <t>11:30:00</t>
   </si>
 </sst>
 </file>
@@ -522,22 +525,22 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2">
         <v>8</v>
       </c>
       <c r="I2">
-        <v>4.428571428571429</v>
+        <v>6.285714285714286</v>
       </c>
       <c r="J2">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K2">
-        <v>66</v>
+        <v>62.5</v>
       </c>
       <c r="L2">
         <v>120</v>
@@ -557,10 +560,10 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -580,10 +583,10 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -603,10 +606,10 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5">
         <v>7</v>
@@ -626,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -649,10 +652,10 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7">
         <v>7</v>
@@ -672,10 +675,10 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8">
         <v>8</v>
@@ -695,10 +698,10 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -715,16 +718,16 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
   <si>
     <t>Weeks</t>
   </si>
@@ -49,6 +49,9 @@
     <t>Hours</t>
   </si>
   <si>
+    <t>Duty</t>
+  </si>
+  <si>
     <t>2022-12-20</t>
   </si>
   <si>
@@ -103,7 +106,13 @@
     <t>18:00:00</t>
   </si>
   <si>
-    <t>11:30:00</t>
+    <t>17:00:00</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>Work</t>
   </si>
 </sst>
 </file>
@@ -461,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -476,7 +485,7 @@
     <col min="12" max="12" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -498,236 +507,266 @@
       <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2">
         <v>8</v>
       </c>
-      <c r="I2">
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2">
         <v>6.285714285714286</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>44</v>
       </c>
-      <c r="K2">
-        <v>62.5</v>
-      </c>
       <c r="L2">
+        <v>61</v>
+      </c>
+      <c r="M2">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10">
-        <v>2.5</v>
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
   <si>
     <t>Weeks</t>
   </si>
@@ -97,22 +97,19 @@
     <t>13:00:00</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>14:00:00</t>
   </si>
   <si>
     <t>18:00:00</t>
   </si>
   <si>
-    <t>17:00:00</t>
-  </si>
-  <si>
-    <t>11:00:00</t>
+    <t>16:00:00</t>
   </si>
   <si>
     <t>Work</t>
+  </si>
+  <si>
+    <t>Sum of total hours</t>
   </si>
 </sst>
 </file>
@@ -470,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,11 +475,12 @@
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="6" width="10.7109375" customWidth="1"/>
+    <col min="3" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="12" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -537,16 +535,16 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
         <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
       </c>
       <c r="G2">
         <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J2">
         <v>6.285714285714286</v>
@@ -555,7 +553,7 @@
         <v>44</v>
       </c>
       <c r="L2">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M2">
         <v>120</v>
@@ -575,16 +573,16 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
         <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
       </c>
       <c r="G3">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -601,16 +599,16 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
         <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
       </c>
       <c r="G4">
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -627,16 +625,16 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
         <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
       </c>
       <c r="G5">
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -653,16 +651,16 @@
         <v>26</v>
       </c>
       <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
         <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
       </c>
       <c r="G6">
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -679,16 +677,16 @@
         <v>26</v>
       </c>
       <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
         <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
       </c>
       <c r="G7">
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -705,16 +703,16 @@
         <v>26</v>
       </c>
       <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
         <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
       </c>
       <c r="G8">
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -731,16 +729,16 @@
         <v>26</v>
       </c>
       <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
       <c r="G9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -754,19 +752,27 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
       </c>
       <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="F11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>32</v>
+      <c r="G11">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="34">
   <si>
     <t>Weeks</t>
   </si>
@@ -52,31 +52,34 @@
     <t>Duty</t>
   </si>
   <si>
-    <t>2022-12-20</t>
-  </si>
-  <si>
-    <t>2022-12-23</t>
-  </si>
-  <si>
-    <t>2022-12-27</t>
-  </si>
-  <si>
-    <t>2022-12-30</t>
-  </si>
-  <si>
-    <t>2023-01-03</t>
-  </si>
-  <si>
-    <t>2023-01-06</t>
-  </si>
-  <si>
-    <t>2023-01-10</t>
-  </si>
-  <si>
-    <t>2023-01-13</t>
-  </si>
-  <si>
-    <t>2023-01-30</t>
+    <t>2022-01-04</t>
+  </si>
+  <si>
+    <t>2022-01-07</t>
+  </si>
+  <si>
+    <t>2022-01-11</t>
+  </si>
+  <si>
+    <t>2022-01-14</t>
+  </si>
+  <si>
+    <t>2022-01-18</t>
+  </si>
+  <si>
+    <t>2022-01-21</t>
+  </si>
+  <si>
+    <t>2022-01-25</t>
+  </si>
+  <si>
+    <t>2022-01-28</t>
+  </si>
+  <si>
+    <t>2022-02-01</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
   </si>
   <si>
     <t>Tuesday</t>
@@ -97,13 +100,16 @@
     <t>13:00:00</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>14:00:00</t>
   </si>
   <si>
     <t>18:00:00</t>
   </si>
   <si>
-    <t>16:00:00</t>
+    <t>11:00:00</t>
   </si>
   <si>
     <t>Work</t>
@@ -467,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,37 +532,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G2">
         <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J2">
-        <v>6.285714285714286</v>
+        <v>8.285714285714286</v>
       </c>
       <c r="K2">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="L2">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M2">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -564,25 +570,25 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -590,25 +596,25 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G4">
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -616,25 +622,25 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G5">
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -642,25 +648,25 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -668,25 +674,25 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -694,25 +700,25 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G8">
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -720,25 +726,25 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -746,33 +752,59 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="F11" s="1" t="s">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
         <v>31</v>
       </c>
       <c r="G11">
-        <v>66</v>
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="F18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -79,7 +79,7 @@
     <t>2022-02-01</t>
   </si>
   <si>
-    <t>2022-02-28</t>
+    <t>2022-02-24</t>
   </si>
   <si>
     <t>Tuesday</t>
@@ -88,7 +88,7 @@
     <t>Friday</t>
   </si>
   <si>
-    <t>Monday</t>
+    <t>Thursday</t>
   </si>
   <si>
     <t>09:00:00</t>
@@ -553,16 +553,16 @@
         <v>32</v>
       </c>
       <c r="J2">
-        <v>8.285714285714286</v>
+        <v>7.714285714285714</v>
       </c>
       <c r="K2">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L2">
         <v>70</v>
       </c>
       <c r="M2">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:13">

--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="39">
   <si>
     <t>Weeks</t>
   </si>
@@ -79,7 +79,25 @@
     <t>2022-02-01</t>
   </si>
   <si>
-    <t>2022-02-24</t>
+    <t>2022-02-04</t>
+  </si>
+  <si>
+    <t>2022-02-08</t>
+  </si>
+  <si>
+    <t>2022-02-11</t>
+  </si>
+  <si>
+    <t>2022-02-15</t>
+  </si>
+  <si>
+    <t>2022-02-18</t>
+  </si>
+  <si>
+    <t>2022-02-22</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
   </si>
   <si>
     <t>Tuesday</t>
@@ -88,7 +106,7 @@
     <t>Friday</t>
   </si>
   <si>
-    <t>Thursday</t>
+    <t>Monday</t>
   </si>
   <si>
     <t>09:00:00</t>
@@ -100,16 +118,13 @@
     <t>13:00:00</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>14:00:00</t>
   </si>
   <si>
     <t>18:00:00</t>
   </si>
   <si>
-    <t>11:00:00</t>
+    <t>16:00:00</t>
   </si>
   <si>
     <t>Work</t>
@@ -485,8 +500,8 @@
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="13" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -532,37 +547,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J2">
-        <v>7.714285714285714</v>
+        <v>8.285714285714286</v>
       </c>
       <c r="K2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L2">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="M2">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -570,25 +585,25 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -596,25 +611,25 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G4">
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -622,25 +637,25 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -648,25 +663,25 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -674,25 +689,25 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -700,25 +715,25 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G8">
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -726,25 +741,25 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G9">
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -752,25 +767,25 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -778,33 +793,189 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7">
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G18">
-        <v>70</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -52,34 +52,34 @@
     <t>Duty</t>
   </si>
   <si>
-    <t>2022-01-04</t>
-  </si>
-  <si>
-    <t>2022-01-07</t>
-  </si>
-  <si>
-    <t>2022-01-11</t>
-  </si>
-  <si>
-    <t>2022-01-14</t>
-  </si>
-  <si>
-    <t>2022-01-18</t>
-  </si>
-  <si>
-    <t>2022-01-21</t>
-  </si>
-  <si>
-    <t>2022-01-25</t>
-  </si>
-  <si>
-    <t>2022-01-28</t>
-  </si>
-  <si>
     <t>2022-02-01</t>
   </si>
   <si>
-    <t>2022-02-24</t>
+    <t>2022-02-04</t>
+  </si>
+  <si>
+    <t>2022-02-08</t>
+  </si>
+  <si>
+    <t>2022-02-11</t>
+  </si>
+  <si>
+    <t>2022-02-15</t>
+  </si>
+  <si>
+    <t>2022-02-18</t>
+  </si>
+  <si>
+    <t>2022-02-22</t>
+  </si>
+  <si>
+    <t>2022-02-25</t>
+  </si>
+  <si>
+    <t>2022-03-01</t>
+  </si>
+  <si>
+    <t>2022-03-19</t>
   </si>
   <si>
     <t>Tuesday</t>
@@ -88,7 +88,7 @@
     <t>Friday</t>
   </si>
   <si>
-    <t>Thursday</t>
+    <t>Saturday</t>
   </si>
   <si>
     <t>09:00:00</t>
@@ -553,16 +553,16 @@
         <v>32</v>
       </c>
       <c r="J2">
-        <v>7.714285714285714</v>
+        <v>6.857142857142857</v>
       </c>
       <c r="K2">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L2">
         <v>70</v>
       </c>
       <c r="M2">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:13">

--- a/result.xlsx
+++ b/result.xlsx
@@ -52,43 +52,43 @@
     <t>Duty</t>
   </si>
   <si>
-    <t>2022-02-01</t>
-  </si>
-  <si>
-    <t>2022-02-04</t>
-  </si>
-  <si>
-    <t>2022-02-08</t>
-  </si>
-  <si>
-    <t>2022-02-11</t>
-  </si>
-  <si>
-    <t>2022-02-15</t>
-  </si>
-  <si>
-    <t>2022-02-18</t>
-  </si>
-  <si>
-    <t>2022-02-22</t>
-  </si>
-  <si>
-    <t>2022-02-25</t>
-  </si>
-  <si>
-    <t>2022-03-01</t>
-  </si>
-  <si>
-    <t>2022-03-19</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
+    <t>2022-03-02</t>
+  </si>
+  <si>
+    <t>2022-03-04</t>
+  </si>
+  <si>
+    <t>2022-03-09</t>
+  </si>
+  <si>
+    <t>2022-03-11</t>
+  </si>
+  <si>
+    <t>2022-03-16</t>
+  </si>
+  <si>
+    <t>2022-03-18</t>
+  </si>
+  <si>
+    <t>2022-03-23</t>
+  </si>
+  <si>
+    <t>2022-03-25</t>
+  </si>
+  <si>
+    <t>2022-03-30</t>
+  </si>
+  <si>
+    <t>2022-04-04</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
   </si>
   <si>
     <t>Friday</t>
   </si>
   <si>
-    <t>Saturday</t>
+    <t>Monday</t>
   </si>
   <si>
     <t>09:00:00</t>
@@ -485,8 +485,8 @@
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="13" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -553,16 +553,16 @@
         <v>32</v>
       </c>
       <c r="J2">
-        <v>6.857142857142857</v>
+        <v>5</v>
       </c>
       <c r="K2">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>70</v>
       </c>
       <c r="M2">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:13">

--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t>Weeks</t>
   </si>
@@ -52,37 +52,25 @@
     <t>Duty</t>
   </si>
   <si>
-    <t>2022-03-02</t>
-  </si>
-  <si>
-    <t>2022-03-04</t>
-  </si>
-  <si>
-    <t>2022-03-09</t>
-  </si>
-  <si>
-    <t>2022-03-11</t>
-  </si>
-  <si>
-    <t>2022-03-16</t>
-  </si>
-  <si>
-    <t>2022-03-18</t>
-  </si>
-  <si>
-    <t>2022-03-23</t>
-  </si>
-  <si>
-    <t>2022-03-25</t>
-  </si>
-  <si>
-    <t>2022-03-30</t>
-  </si>
-  <si>
-    <t>2022-04-04</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
+    <t>2022-02-04</t>
+  </si>
+  <si>
+    <t>2022-02-07</t>
+  </si>
+  <si>
+    <t>2022-02-11</t>
+  </si>
+  <si>
+    <t>2022-02-14</t>
+  </si>
+  <si>
+    <t>2022-02-18</t>
+  </si>
+  <si>
+    <t>2022-02-21</t>
+  </si>
+  <si>
+    <t>2022-03-05</t>
   </si>
   <si>
     <t>Friday</t>
@@ -91,6 +79,9 @@
     <t>Monday</t>
   </si>
   <si>
+    <t>Saturday</t>
+  </si>
+  <si>
     <t>09:00:00</t>
   </si>
   <si>
@@ -100,16 +91,13 @@
     <t>13:00:00</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>14:00:00</t>
   </si>
   <si>
     <t>18:00:00</t>
   </si>
   <si>
-    <t>11:00:00</t>
+    <t>15:00:00</t>
   </si>
   <si>
     <t>Work</t>
@@ -532,37 +520,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G2">
         <v>8</v>
       </c>
       <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2">
+        <v>4.571428571428571</v>
+      </c>
+      <c r="K2">
         <v>32</v>
       </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>35</v>
-      </c>
       <c r="L2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="M2">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -570,25 +558,25 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
       </c>
       <c r="G3">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -596,25 +584,25 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G4">
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -622,25 +610,25 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
       </c>
       <c r="G5">
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -648,25 +636,25 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6">
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -674,25 +662,25 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
       </c>
       <c r="G7">
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -700,111 +688,33 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
       <c r="G8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="H10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
         <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G18">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
